--- a/biology/Histoire de la zoologie et de la botanique/Société_des_naturalistes_de_Moscou/Société_des_naturalistes_de_Moscou.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_des_naturalistes_de_Moscou/Société_des_naturalistes_de_Moscou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_des_naturalistes_de_Moscou</t>
+          <t>Société_des_naturalistes_de_Moscou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société impériale des naturalistes de Moscou (en français dans le texte), après 1917: Société des naturalistes de Moscou (Московское общество испытателей природы; MOIP), est une société savante fondée à Moscou en 1805 auprès de l'université de Moscou. Elle est toujours en activité aujourd'hui. Son président est depuis l'an 2000 Viktor Sadovnitchi, membre de l'académie des sciences de Russie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_des_naturalistes_de_Moscou</t>
+          <t>Société_des_naturalistes_de_Moscou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'idée de sa fondation revient à deux aristocrates russes, Mikhaïl Mouraviov et le comte Razoumovsky (qui en fut le premier président). Mouraviov invite à Moscou Johann Fischer von Waldheim afin d'attirer des savants à l'université. On compte donc parmi ses cofondateurs, outre ce dernier, d'autres savants, comme Georg Franz Hoffmann, Piotr Droujinine, ou Chariton Tchebotariov. Les membres sont présentés à l'empereur Alexandre, puis la première séance se tient le 18 septembre 1805. Le but de la société est de répandre le goût et les études d'histoire naturelle dans le pays. Elle reçoit l'épithète honorifique d'« impériale » en 1807 (qu'elle perd en 1917). Des filiales ne tardent pas à ouvrir dans les principales villes de l'Empire: d'abord la capitale, Saint-Pétersbourg, et d'autres grandes villes, comme Kiev, Kazan, Odessa, Kharkov, Reval, Tomsk, Riazan, Tver, Ivanovo, Stavropol, etc. La plupart continue de travailler aujourd'hui.
 La société, à l'origine avec d'autres de la fondation du parc zoologique de Moscou en 1864, dirige pendant un temps le musée polytechnique de Moscou et gère le musée zoologique de Moscou, jusqu'en 1861.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_des_naturalistes_de_Moscou</t>
+          <t>Société_des_naturalistes_de_Moscou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Liste des présidents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les présidents de la Société sont d'abord nommés, puis élus à vie par les membres de la Société à partir de 1872.
 1805—1817: comte Alexeï Razoumovski
